--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAP ME\Desktop\داتا ساينس دبلومه\new projects\maintinance plan\maintinance-app.py\CMMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6058D721-D041-4E8C-BA82-A82CAC10EBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8425FA-BB7F-49E1-B286-46F91457CB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Machine" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="61">
   <si>
     <t>card</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Current_Tons</t>
-  </si>
-  <si>
     <t>Done Services</t>
   </si>
   <si>
@@ -153,12 +150,6 @@
   </si>
   <si>
     <t>❌ لا يوجد شيت باسم Card24</t>
-  </si>
-  <si>
-    <t>Min_Tons</t>
-  </si>
-  <si>
-    <t>Max_Tons</t>
   </si>
   <si>
     <t>1.carding elemnt(o)</t>
@@ -638,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,16 +666,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -695,19 +686,19 @@
         <v>155</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -718,10 +709,10 @@
         <v>144</v>
       </c>
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
       </c>
       <c r="E3">
         <v>755</v>
@@ -730,10 +721,10 @@
         <v>755</v>
       </c>
       <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
         <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -744,22 +735,22 @@
         <v>555</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -770,22 +761,22 @@
         <v>222</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -796,22 +787,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -822,22 +813,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -848,22 +839,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -874,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -900,22 +891,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -926,22 +917,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -952,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -978,22 +969,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1004,22 +995,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1027,22 +1018,22 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1050,22 +1041,22 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1073,22 +1064,22 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1096,22 +1087,22 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1119,22 +1110,22 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1142,22 +1133,22 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1168,22 +1159,22 @@
         <v>888</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1191,22 +1182,22 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1214,22 +1205,22 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1237,22 +1228,22 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1260,22 +1251,22 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1288,7 +1279,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M12"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1311,40 +1302,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1382,20 +1373,20 @@
         <v>177</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M3" s="2"/>
     </row>
@@ -1412,7 +1403,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -1478,18 +1469,18 @@
         <v>755</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M7" s="2"/>
     </row>
@@ -1608,7 +1599,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M12"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1631,40 +1622,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1702,12 +1693,12 @@
         <v>155</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1728,7 +1719,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -1752,7 +1743,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1775,10 +1766,10 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1922,7 +1913,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1946,40 +1937,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -2014,13 +2005,13 @@
         <v>300</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -2041,7 +2032,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -2230,7 +2221,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2254,40 +2245,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -2325,20 +2316,20 @@
         <v>156</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M3" s="2"/>
     </row>
@@ -2357,7 +2348,7 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -2365,7 +2356,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M4" s="2"/>
     </row>
@@ -2405,7 +2396,7 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -2450,10 +2441,10 @@
         <v>888</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -2461,7 +2452,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M8" s="2"/>
     </row>
@@ -2558,7 +2549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -2571,13 +2562,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2588,7 +2579,7 @@
         <v>150</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2599,7 +2590,7 @@
         <v>300</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2610,7 +2601,7 @@
         <v>450</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2621,7 +2612,7 @@
         <v>550</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2632,7 +2623,7 @@
         <v>700</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2643,7 +2634,7 @@
         <v>850</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2654,7 +2645,7 @@
         <v>1000</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2665,7 +2656,7 @@
         <v>1150</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2676,7 +2667,7 @@
         <v>1300</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2687,7 +2678,7 @@
         <v>1450</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2698,7 +2689,7 @@
         <v>1500</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -5,21 +5,40 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAP ME\Desktop\maintinance app.py\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAP ME\Desktop\cmms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B8301B-7A2D-4116-8D5E-928880756BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46AF4B5-4866-4264-A331-165FE00022E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Card4" sheetId="9" r:id="rId1"/>
-    <sheet name="Card5" sheetId="8" r:id="rId2"/>
-    <sheet name="Card3" sheetId="7" r:id="rId3"/>
-    <sheet name="Machine" sheetId="1" r:id="rId4"/>
-    <sheet name="ServicePlan" sheetId="6" r:id="rId5"/>
-    <sheet name="Card1" sheetId="5" r:id="rId6"/>
-    <sheet name="Card2" sheetId="2" r:id="rId7"/>
+    <sheet name="Card24" sheetId="28" r:id="rId1"/>
+    <sheet name="Card23" sheetId="27" r:id="rId2"/>
+    <sheet name="Card22" sheetId="26" r:id="rId3"/>
+    <sheet name="Card21" sheetId="25" r:id="rId4"/>
+    <sheet name="Card20" sheetId="24" r:id="rId5"/>
+    <sheet name="Card19" sheetId="23" r:id="rId6"/>
+    <sheet name="Card18" sheetId="22" r:id="rId7"/>
+    <sheet name="Card17" sheetId="21" r:id="rId8"/>
+    <sheet name="Card16" sheetId="20" r:id="rId9"/>
+    <sheet name="Card15" sheetId="19" r:id="rId10"/>
+    <sheet name="Card14" sheetId="18" r:id="rId11"/>
+    <sheet name="Card13" sheetId="17" r:id="rId12"/>
+    <sheet name="Card12" sheetId="16" r:id="rId13"/>
+    <sheet name="Card11" sheetId="15" r:id="rId14"/>
+    <sheet name="Card10" sheetId="14" r:id="rId15"/>
+    <sheet name="Card9" sheetId="13" r:id="rId16"/>
+    <sheet name="Card8" sheetId="12" r:id="rId17"/>
+    <sheet name="Card7" sheetId="11" r:id="rId18"/>
+    <sheet name="Card4" sheetId="9" r:id="rId19"/>
+    <sheet name="Card6" sheetId="10" r:id="rId20"/>
+    <sheet name="Card5" sheetId="8" r:id="rId21"/>
+    <sheet name="Card3" sheetId="7" r:id="rId22"/>
+    <sheet name="Machine" sheetId="1" r:id="rId23"/>
+    <sheet name="ServicePlan" sheetId="6" r:id="rId24"/>
+    <sheet name="Card1" sheetId="5" r:id="rId25"/>
+    <sheet name="Card2" sheetId="2" r:id="rId26"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -31,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="142">
   <si>
     <t>card</t>
   </si>
@@ -144,12 +163,6 @@
     <t>❌ لا يوجد شيت باسم Card24</t>
   </si>
   <si>
-    <t>Min_Tons</t>
-  </si>
-  <si>
-    <t>Max_Tons</t>
-  </si>
-  <si>
     <t>1.carding elemnt(o)</t>
   </si>
   <si>
@@ -159,25 +172,13 @@
     <t>Doffer carding element(o)</t>
   </si>
   <si>
-    <t>(cylinder(X)</t>
-  </si>
-  <si>
     <t>doffer(X)</t>
   </si>
   <si>
-    <t>Revolving flats(o).1</t>
-  </si>
-  <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
     <t>✔</t>
-  </si>
-  <si>
-    <t>11\2\2024</t>
-  </si>
-  <si>
-    <t>11\3\2024</t>
   </si>
   <si>
     <t>Service</t>
@@ -215,6 +216,273 @@
   </si>
   <si>
     <t>Max_Tones</t>
+  </si>
+  <si>
+    <t>15\7\2024</t>
+  </si>
+  <si>
+    <t>Revolving flats(x)</t>
+  </si>
+  <si>
+    <t>29\1\2025</t>
+  </si>
+  <si>
+    <t>5\4\2025</t>
+  </si>
+  <si>
+    <t>5\7\2025</t>
+  </si>
+  <si>
+    <t>5\1\2025</t>
+  </si>
+  <si>
+    <t>24\9\2025</t>
+  </si>
+  <si>
+    <t>cylinder(X)</t>
+  </si>
+  <si>
+    <t>16\7\2024</t>
+  </si>
+  <si>
+    <t>27\2\2025</t>
+  </si>
+  <si>
+    <t>7\4\2025</t>
+  </si>
+  <si>
+    <t>6\7\2025</t>
+  </si>
+  <si>
+    <t>28\9\2025</t>
+  </si>
+  <si>
+    <t>21\7\2025</t>
+  </si>
+  <si>
+    <t>19\1\2025</t>
+  </si>
+  <si>
+    <t>8\4\2025</t>
+  </si>
+  <si>
+    <t>7\7\2025</t>
+  </si>
+  <si>
+    <t>30\9\2025</t>
+  </si>
+  <si>
+    <t>20\7\2024</t>
+  </si>
+  <si>
+    <t>5\3\2025</t>
+  </si>
+  <si>
+    <t>9\4\2025</t>
+  </si>
+  <si>
+    <t>9\7\2025</t>
+  </si>
+  <si>
+    <t>1\10\2025</t>
+  </si>
+  <si>
+    <t>21\7\2024</t>
+  </si>
+  <si>
+    <t>10\4\2025</t>
+  </si>
+  <si>
+    <t>27\1\2025</t>
+  </si>
+  <si>
+    <t>16\7\2025</t>
+  </si>
+  <si>
+    <t>22\9\2025</t>
+  </si>
+  <si>
+    <t>1\7\2024</t>
+  </si>
+  <si>
+    <t>20\1\2025</t>
+  </si>
+  <si>
+    <t>12\4\2025</t>
+  </si>
+  <si>
+    <t>17\7\2025</t>
+  </si>
+  <si>
+    <t>4\10\2025</t>
+  </si>
+  <si>
+    <t>28\1\2025</t>
+  </si>
+  <si>
+    <t>13\4\2025</t>
+  </si>
+  <si>
+    <t>19\7\2025</t>
+  </si>
+  <si>
+    <t>5\10\2025</t>
+  </si>
+  <si>
+    <t>6\3\2025</t>
+  </si>
+  <si>
+    <t>14\4\2025</t>
+  </si>
+  <si>
+    <t>20\7\2025</t>
+  </si>
+  <si>
+    <t>8\10\2025</t>
+  </si>
+  <si>
+    <t>8\3\2025</t>
+  </si>
+  <si>
+    <t>17\4\2025</t>
+  </si>
+  <si>
+    <t>9\10\2025</t>
+  </si>
+  <si>
+    <t>1\3\2025</t>
+  </si>
+  <si>
+    <t>19\4\2025</t>
+  </si>
+  <si>
+    <t>23\7\2025</t>
+  </si>
+  <si>
+    <t>13\10\2025</t>
+  </si>
+  <si>
+    <t>24\12\2024</t>
+  </si>
+  <si>
+    <t>20\4\2025</t>
+  </si>
+  <si>
+    <t>24\7\2025</t>
+  </si>
+  <si>
+    <t>15\10\2025</t>
+  </si>
+  <si>
+    <t>4\1\2024</t>
+  </si>
+  <si>
+    <t>21\4\2025</t>
+  </si>
+  <si>
+    <t>26\7\2025</t>
+  </si>
+  <si>
+    <t>19\10\2025</t>
+  </si>
+  <si>
+    <t>9\3\2025</t>
+  </si>
+  <si>
+    <t>22\4\2025</t>
+  </si>
+  <si>
+    <t>12\8\2025</t>
+  </si>
+  <si>
+    <t>20\10\2025</t>
+  </si>
+  <si>
+    <t>23\1\2025</t>
+  </si>
+  <si>
+    <t>23\4\2025</t>
+  </si>
+  <si>
+    <t>13\8\2025</t>
+  </si>
+  <si>
+    <t>25\12\2024</t>
+  </si>
+  <si>
+    <t>14\8\2025</t>
+  </si>
+  <si>
+    <t>27\4\2025</t>
+  </si>
+  <si>
+    <t>10\3\2025</t>
+  </si>
+  <si>
+    <t>9\12\2024</t>
+  </si>
+  <si>
+    <t>20\8\2025</t>
+  </si>
+  <si>
+    <t>29\4\2025</t>
+  </si>
+  <si>
+    <t>11\3\2025</t>
+  </si>
+  <si>
+    <t>1\12\2024</t>
+  </si>
+  <si>
+    <t>23\8\2025</t>
+  </si>
+  <si>
+    <t>30\4\2025</t>
+  </si>
+  <si>
+    <t>5\12\2024</t>
+  </si>
+  <si>
+    <t>27\8\2025</t>
+  </si>
+  <si>
+    <t>12\5\2025</t>
+  </si>
+  <si>
+    <t>26\2\2025</t>
+  </si>
+  <si>
+    <t>31\8\2025</t>
+  </si>
+  <si>
+    <t>13\5\2025</t>
+  </si>
+  <si>
+    <t>21\1\2025</t>
+  </si>
+  <si>
+    <t>1\9\2025</t>
+  </si>
+  <si>
+    <t>14\5\2025</t>
+  </si>
+  <si>
+    <t>25\1\2025</t>
+  </si>
+  <si>
+    <t>4\9\2025</t>
+  </si>
+  <si>
+    <t>15\5\2025</t>
+  </si>
+  <si>
+    <t>6\8\2024</t>
+  </si>
+  <si>
+    <t>6\10\2025</t>
+  </si>
+  <si>
+    <t>20\5\2025</t>
   </si>
 </sst>
 </file>
@@ -243,7 +511,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -266,16 +534,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,11 +859,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D9D711-828C-4A47-98CC-85C4589EDBCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987CE768-F124-46B5-8287-B07AA6F06AE8}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,7 +878,7 @@
     <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -604,34 +886,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>5</v>
@@ -667,18 +949,12 @@
       <c r="C3" s="2">
         <v>300</v>
       </c>
-      <c r="D3" s="2">
-        <v>177</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -697,9 +973,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -737,15 +1011,27 @@
       <c r="C6" s="2">
         <v>700</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>632</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -758,18 +1044,22 @@
         <v>850</v>
       </c>
       <c r="D7" s="2">
-        <v>755</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+        <v>870</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -803,9 +1093,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -846,9 +1134,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -880,12 +1166,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174A5C8C-F146-4609-8B85-E24DEFD5C1A3}">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411ACCDA-617D-49F5-B6B1-62F32E947F20}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,7 +1186,7 @@
     <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -908,34 +1194,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>5</v>
@@ -971,18 +1257,12 @@
       <c r="C3" s="2">
         <v>300</v>
       </c>
-      <c r="D3" s="2">
-        <v>177</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1000,16 +1280,22 @@
         <v>450</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="F4" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -1024,12 +1310,16 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -1041,15 +1331,21 @@
       <c r="C6" s="2">
         <v>700</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>578</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -1062,18 +1358,20 @@
         <v>850</v>
       </c>
       <c r="D7" s="2">
-        <v>755</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>777</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -1085,15 +1383,23 @@
       <c r="C8" s="2">
         <v>1000</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>890</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -1166,9 +1472,7 @@
         <v>1500</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1182,12 +1486,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6994100-3365-44D7-8367-819204303B10}">
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE2F8737-48D6-4985-84C5-FA054C059BE7}">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1506,7 @@
     <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1210,34 +1514,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>5</v>
@@ -1274,17 +1578,2293 @@
         <v>300</v>
       </c>
       <c r="D3" s="2">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>301</v>
+      </c>
+      <c r="C4" s="2">
+        <v>450</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>451</v>
+      </c>
+      <c r="C5" s="2">
+        <v>550</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>551</v>
+      </c>
+      <c r="C6" s="2">
+        <v>700</v>
+      </c>
+      <c r="D6" s="2">
+        <v>582</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>701</v>
+      </c>
+      <c r="C7" s="2">
+        <v>850</v>
+      </c>
+      <c r="D7" s="2">
+        <v>758</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2">
+        <v>851</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="2">
+        <v>894</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1150</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1151</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1300</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1301</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1450</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1451</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4A6E3D-EED1-4E75-94AC-FF32F068E7C7}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>150</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>151</v>
+      </c>
+      <c r="C3" s="2">
+        <v>300</v>
+      </c>
+      <c r="D3" s="2">
+        <v>159</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>301</v>
+      </c>
+      <c r="C4" s="2">
+        <v>450</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>451</v>
+      </c>
+      <c r="C5" s="2">
+        <v>550</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>551</v>
+      </c>
+      <c r="C6" s="2">
+        <v>700</v>
+      </c>
+      <c r="D6" s="2">
+        <v>576</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>701</v>
+      </c>
+      <c r="C7" s="2">
+        <v>850</v>
+      </c>
+      <c r="D7" s="2">
+        <v>758</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2">
+        <v>851</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="2">
+        <v>875</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1150</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1151</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1300</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1301</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1450</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1451</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECC86A1-826F-4607-A58D-94F7687C269F}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>150</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>151</v>
+      </c>
+      <c r="C3" s="2">
+        <v>300</v>
+      </c>
+      <c r="D3" s="2">
+        <v>159</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>301</v>
+      </c>
+      <c r="C4" s="2">
+        <v>450</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>451</v>
+      </c>
+      <c r="C5" s="2">
+        <v>550</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>551</v>
+      </c>
+      <c r="C6" s="2">
+        <v>700</v>
+      </c>
+      <c r="D6" s="2">
+        <v>591</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>701</v>
+      </c>
+      <c r="C7" s="2">
+        <v>850</v>
+      </c>
+      <c r="D7" s="2">
+        <v>758</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2">
+        <v>851</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="2">
+        <v>895</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1150</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1151</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1300</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1301</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1450</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1451</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375ECBB0-3CB2-4E22-B691-8ABE3AC60991}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>150</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>151</v>
+      </c>
+      <c r="C3" s="2">
+        <v>300</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>301</v>
+      </c>
+      <c r="C4" s="2">
+        <v>450</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>451</v>
+      </c>
+      <c r="C5" s="2">
+        <v>550</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>551</v>
+      </c>
+      <c r="C6" s="2">
+        <v>700</v>
+      </c>
+      <c r="D6" s="2">
+        <v>595</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>701</v>
+      </c>
+      <c r="C7" s="2">
+        <v>850</v>
+      </c>
+      <c r="D7" s="2">
+        <v>764</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2">
+        <v>851</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="2">
+        <v>899</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1150</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1151</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1300</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1301</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1450</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1451</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF0FD94-AD5F-4732-84A6-E61D5933AFAA}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>150</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>151</v>
+      </c>
+      <c r="C3" s="2">
+        <v>300</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>301</v>
+      </c>
+      <c r="C4" s="2">
+        <v>450</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>451</v>
+      </c>
+      <c r="C5" s="2">
+        <v>550</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>551</v>
+      </c>
+      <c r="C6" s="2">
+        <v>700</v>
+      </c>
+      <c r="D6" s="2">
+        <v>584</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>701</v>
+      </c>
+      <c r="C7" s="2">
+        <v>850</v>
+      </c>
+      <c r="D7" s="2">
+        <v>753</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2">
+        <v>851</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="2">
+        <v>887</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1150</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1151</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1300</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1301</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1450</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1451</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B969EA5-32B9-452A-BC50-4F37FC3F05B9}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>150</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>151</v>
+      </c>
+      <c r="C3" s="2">
+        <v>300</v>
+      </c>
+      <c r="D3" s="2">
+        <v>159</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>301</v>
+      </c>
+      <c r="C4" s="2">
+        <v>450</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>451</v>
+      </c>
+      <c r="C5" s="2">
+        <v>550</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>551</v>
+      </c>
+      <c r="C6" s="2">
+        <v>700</v>
+      </c>
+      <c r="D6" s="2">
+        <v>578</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>701</v>
+      </c>
+      <c r="C7" s="2">
+        <v>850</v>
+      </c>
+      <c r="D7" s="2">
+        <v>749</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2">
+        <v>851</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="2">
+        <v>880</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1150</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1151</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1300</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1301</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1450</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1451</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D0AA66-BD5C-46A8-A28F-2A7D54BF9665}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>150</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>151</v>
+      </c>
+      <c r="C3" s="2">
+        <v>300</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>301</v>
+      </c>
+      <c r="C4" s="2">
+        <v>450</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>451</v>
+      </c>
+      <c r="C5" s="2">
+        <v>550</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>551</v>
+      </c>
+      <c r="C6" s="2">
+        <v>700</v>
+      </c>
+      <c r="D6" s="2">
+        <v>573</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>701</v>
+      </c>
+      <c r="C7" s="2">
+        <v>850</v>
+      </c>
+      <c r="D7" s="2">
+        <v>742</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2">
+        <v>851</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="2">
+        <v>873</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1150</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1151</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1300</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1301</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1450</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1451</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EC1447-5AB4-4127-ADE5-D27FC8A9C063}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>150</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>151</v>
+      </c>
+      <c r="C3" s="2">
+        <v>300</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1303,9 +3883,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1363,12 +3941,8 @@
       <c r="C7" s="2">
         <v>850</v>
       </c>
-      <c r="D7" s="2">
-        <v>755</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1482,11 +4056,1599 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D9D711-828C-4A47-98CC-85C4589EDBCD}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>150</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>151</v>
+      </c>
+      <c r="C3" s="2">
+        <v>300</v>
+      </c>
+      <c r="D3" s="2">
+        <v>177</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>301</v>
+      </c>
+      <c r="C4" s="2">
+        <v>450</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>451</v>
+      </c>
+      <c r="C5" s="2">
+        <v>550</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>551</v>
+      </c>
+      <c r="C6" s="2">
+        <v>700</v>
+      </c>
+      <c r="D6" s="2">
+        <v>579</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>701</v>
+      </c>
+      <c r="C7" s="2">
+        <v>850</v>
+      </c>
+      <c r="D7" s="2">
+        <v>739</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2">
+        <v>851</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="2">
+        <v>880</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1150</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1151</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1300</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1301</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1450</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1451</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE59E0D4-76FA-4FBA-95AE-A0CD81D227F3}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>150</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>151</v>
+      </c>
+      <c r="C3" s="2">
+        <v>300</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>301</v>
+      </c>
+      <c r="C4" s="2">
+        <v>450</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>451</v>
+      </c>
+      <c r="C5" s="2">
+        <v>550</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>551</v>
+      </c>
+      <c r="C6" s="2">
+        <v>700</v>
+      </c>
+      <c r="D6" s="2">
+        <v>641</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>701</v>
+      </c>
+      <c r="C7" s="2">
+        <v>850</v>
+      </c>
+      <c r="D7" s="2">
+        <v>836</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2">
+        <v>851</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1150</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1151</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1300</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1301</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1450</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1451</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B58248C-35DC-43EF-9622-BF5F5B2F8BDE}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>150</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>151</v>
+      </c>
+      <c r="C3" s="2">
+        <v>300</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>301</v>
+      </c>
+      <c r="C4" s="2">
+        <v>450</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>451</v>
+      </c>
+      <c r="C5" s="2">
+        <v>550</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>551</v>
+      </c>
+      <c r="C6" s="2">
+        <v>700</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>701</v>
+      </c>
+      <c r="C7" s="2">
+        <v>850</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2">
+        <v>851</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1150</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1151</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1300</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1301</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1450</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1451</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174A5C8C-F146-4609-8B85-E24DEFD5C1A3}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>150</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>151</v>
+      </c>
+      <c r="C3" s="2">
+        <v>300</v>
+      </c>
+      <c r="D3" s="2">
+        <v>177</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>301</v>
+      </c>
+      <c r="C4" s="2">
+        <v>450</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>451</v>
+      </c>
+      <c r="C5" s="2">
+        <v>550</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>551</v>
+      </c>
+      <c r="C6" s="2">
+        <v>700</v>
+      </c>
+      <c r="D6" s="2">
+        <v>566</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>701</v>
+      </c>
+      <c r="C7" s="2">
+        <v>850</v>
+      </c>
+      <c r="D7" s="2">
+        <v>737</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2">
+        <v>851</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="2">
+        <v>851</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1150</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1151</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1300</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1301</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1450</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1451</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6994100-3365-44D7-8367-819204303B10}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>150</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>151</v>
+      </c>
+      <c r="C3" s="2">
+        <v>300</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>301</v>
+      </c>
+      <c r="C4" s="2">
+        <v>450</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>451</v>
+      </c>
+      <c r="C5" s="2">
+        <v>550</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>551</v>
+      </c>
+      <c r="C6" s="2">
+        <v>700</v>
+      </c>
+      <c r="D6" s="2">
+        <v>573</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>701</v>
+      </c>
+      <c r="C7" s="2">
+        <v>850</v>
+      </c>
+      <c r="D7" s="2">
+        <v>729</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2">
+        <v>851</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="2">
+        <v>869</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1150</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1151</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1300</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1301</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1450</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1451</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -2128,30 +6290,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="110.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2173,7 +6335,7 @@
         <v>300</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2184,7 +6346,7 @@
         <v>450</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2195,7 +6357,7 @@
         <v>550</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2206,7 +6368,7 @@
         <v>700</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2217,7 +6379,7 @@
         <v>850</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2228,7 +6390,7 @@
         <v>1000</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2239,7 +6401,7 @@
         <v>1150</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2250,7 +6412,7 @@
         <v>1300</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2261,7 +6423,7 @@
         <v>1450</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2272,7 +6434,7 @@
         <v>1500</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2280,12 +6442,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2299,47 +6461,50 @@
     <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2359,7 +6524,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2370,26 +6535,26 @@
         <v>300</v>
       </c>
       <c r="D3" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -2399,23 +6564,17 @@
       <c r="C4" s="2">
         <v>450</v>
       </c>
-      <c r="D4" s="2">
-        <v>335</v>
-      </c>
+      <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -2426,16 +6585,26 @@
         <v>550</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L5" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -2446,20 +6615,24 @@
         <v>700</v>
       </c>
       <c r="D6" s="2">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L6" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -2470,20 +6643,24 @@
         <v>850</v>
       </c>
       <c r="D7" s="2">
-        <v>777</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>724</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -2493,17 +6670,23 @@
       <c r="C8" s="2">
         <v>1000</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>859</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L8" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -2523,7 +6706,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -2543,7 +6726,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -2563,7 +6746,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -2588,12 +6771,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2608,7 +6791,7 @@
     <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2616,34 +6799,358 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>150</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>151</v>
+      </c>
+      <c r="C3" s="2">
+        <v>300</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>301</v>
+      </c>
+      <c r="C4" s="2">
+        <v>450</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>451</v>
+      </c>
+      <c r="C5" s="2">
+        <v>550</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>551</v>
+      </c>
+      <c r="C6" s="2">
+        <v>700</v>
+      </c>
+      <c r="D6" s="2">
+        <v>559</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>701</v>
+      </c>
+      <c r="C7" s="2">
+        <v>850</v>
+      </c>
+      <c r="D7" s="2">
+        <v>727</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2">
+        <v>851</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="2">
+        <v>860</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1150</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1151</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1300</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1301</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1450</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1451</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A893994A-360D-4554-8A8D-D18EAB1F4CF8}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>5</v>
@@ -2679,18 +7186,12 @@
       <c r="C3" s="2">
         <v>300</v>
       </c>
-      <c r="D3" s="2">
-        <v>177</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -2709,9 +7210,943 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>451</v>
+      </c>
+      <c r="C5" s="2">
+        <v>550</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>551</v>
+      </c>
+      <c r="C6" s="2">
+        <v>700</v>
+      </c>
+      <c r="D6" s="2">
+        <v>629</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>701</v>
+      </c>
+      <c r="C7" s="2">
+        <v>850</v>
+      </c>
+      <c r="D7" s="2">
+        <v>800</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2">
+        <v>851</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1150</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1151</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1300</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1301</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1450</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1451</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96916204-7747-4C29-883F-FE4B1D3155BD}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>150</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>151</v>
+      </c>
+      <c r="C3" s="2">
+        <v>300</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>301</v>
+      </c>
+      <c r="C4" s="2">
+        <v>450</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>451</v>
+      </c>
+      <c r="C5" s="2">
+        <v>550</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>551</v>
+      </c>
+      <c r="C6" s="2">
+        <v>700</v>
+      </c>
+      <c r="D6" s="2">
+        <v>610</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>701</v>
+      </c>
+      <c r="C7" s="2">
+        <v>850</v>
+      </c>
+      <c r="D7" s="2">
+        <v>796</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2">
+        <v>851</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1150</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1151</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1300</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1301</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1450</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1451</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC098E9-46CC-49E6-BED4-08CC024EF337}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>150</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>151</v>
+      </c>
+      <c r="C3" s="2">
+        <v>300</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>301</v>
+      </c>
+      <c r="C4" s="2">
+        <v>450</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>451</v>
+      </c>
+      <c r="C5" s="2">
+        <v>550</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>551</v>
+      </c>
+      <c r="C6" s="2">
+        <v>700</v>
+      </c>
+      <c r="D6" s="2">
+        <v>600</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>701</v>
+      </c>
+      <c r="C7" s="2">
+        <v>850</v>
+      </c>
+      <c r="D7" s="2">
+        <v>786</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2">
+        <v>851</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1150</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1151</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1300</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1301</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1450</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1451</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB4F025-9EFF-4C34-88C3-AD06E06D02EE}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>150</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>151</v>
+      </c>
+      <c r="C3" s="2">
+        <v>300</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>301</v>
+      </c>
+      <c r="C4" s="2">
+        <v>450</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -2749,15 +8184,23 @@
       <c r="C6" s="2">
         <v>700</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>595</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -2770,18 +8213,20 @@
         <v>850</v>
       </c>
       <c r="D7" s="2">
-        <v>755</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>797</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -2886,4 +8331,936 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07705AAC-0EB5-4ED1-B658-B16CA1C68037}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>150</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>151</v>
+      </c>
+      <c r="C3" s="2">
+        <v>300</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>301</v>
+      </c>
+      <c r="C4" s="2">
+        <v>450</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>451</v>
+      </c>
+      <c r="C5" s="2">
+        <v>550</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>551</v>
+      </c>
+      <c r="C6" s="2">
+        <v>700</v>
+      </c>
+      <c r="D6" s="2">
+        <v>590</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>701</v>
+      </c>
+      <c r="C7" s="2">
+        <v>850</v>
+      </c>
+      <c r="D7" s="2">
+        <v>785</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2">
+        <v>851</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1150</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1151</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1300</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1301</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1450</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1451</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32AD5A6-1E4C-4176-9AAF-BAA9E6F777F3}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>150</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>151</v>
+      </c>
+      <c r="C3" s="2">
+        <v>300</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>301</v>
+      </c>
+      <c r="C4" s="2">
+        <v>450</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>451</v>
+      </c>
+      <c r="C5" s="2">
+        <v>550</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>551</v>
+      </c>
+      <c r="C6" s="2">
+        <v>700</v>
+      </c>
+      <c r="D6" s="2">
+        <v>593</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>701</v>
+      </c>
+      <c r="C7" s="2">
+        <v>850</v>
+      </c>
+      <c r="D7" s="2">
+        <v>783</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2">
+        <v>851</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1150</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1151</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1300</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1301</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1450</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1451</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD634B16-74AB-4B97-8AF2-4343329B1265}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>150</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>151</v>
+      </c>
+      <c r="C3" s="2">
+        <v>300</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>301</v>
+      </c>
+      <c r="C4" s="2">
+        <v>450</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>451</v>
+      </c>
+      <c r="C5" s="2">
+        <v>550</v>
+      </c>
+      <c r="D5" s="2">
+        <v>497</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>551</v>
+      </c>
+      <c r="C6" s="2">
+        <v>700</v>
+      </c>
+      <c r="D6" s="2">
+        <v>696</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>701</v>
+      </c>
+      <c r="C7" s="2">
+        <v>850</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2">
+        <v>851</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1150</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1151</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1300</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1301</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1450</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1451</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAP ME\Desktop\cmms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46AF4B5-4866-4264-A331-165FE00022E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F35501-E549-4ACF-B290-CCCD6C5B0563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Card24" sheetId="28" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="142">
   <si>
     <t>card</t>
   </si>
@@ -1490,7 +1490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE2F8737-48D6-4985-84C5-FA054C059BE7}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -5322,8 +5322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6994100-3365-44D7-8367-819204303B10}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5390,20 +5390,14 @@
         <v>150</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -5416,7 +5410,9 @@
         <v>300</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
@@ -5425,7 +5421,9 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -5648,7 +5646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -6447,7 +6445,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6776,7 +6774,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6843,20 +6841,14 @@
         <v>150</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -6869,8 +6861,12 @@
         <v>300</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
         <v>41</v>
@@ -6878,7 +6874,9 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAP ME\Desktop\cmms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F35501-E549-4ACF-B290-CCCD6C5B0563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C60AE2C-27B3-44AF-AE0A-A89ED0DB9280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Card24" sheetId="28" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="142">
   <si>
     <t>card</t>
   </si>
@@ -5322,7 +5322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6994100-3365-44D7-8367-819204303B10}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -6444,8 +6444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6513,7 +6513,9 @@
         <v>150</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAP ME\Desktop\cmms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C60AE2C-27B3-44AF-AE0A-A89ED0DB9280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD77270-5F8B-4CED-AE15-3456CF7D3F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="142">
   <si>
     <t>card</t>
   </si>
@@ -6445,7 +6445,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6513,9 +6513,7 @@
         <v>150</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAP ME\Desktop\cmms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD77270-5F8B-4CED-AE15-3456CF7D3F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E56E9F7-C2DB-4FE1-844E-58AB741797C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Card24" sheetId="28" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="143">
   <si>
     <t>card</t>
   </si>
@@ -483,6 +483,9 @@
   </si>
   <si>
     <t>20\5\2025</t>
+  </si>
+  <si>
+    <t>21\10\2025</t>
   </si>
 </sst>
 </file>
@@ -6444,7 +6447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -8957,8 +8960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD634B16-74AB-4B97-8AF2-4343329B1265}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9168,15 +9171,23 @@
       <c r="C8" s="2">
         <v>1000</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>808</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2">

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAP ME\Desktop\cmms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E56E9F7-C2DB-4FE1-844E-58AB741797C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094DD831-96FA-4C73-AD6A-BA9D070C7228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Card24" sheetId="28" r:id="rId1"/>
@@ -40,8 +40,17 @@
     <sheet name="Card1" sheetId="5" r:id="rId25"/>
     <sheet name="Card2" sheetId="2" r:id="rId26"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
     </ext>
@@ -50,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="145">
   <si>
     <t>card</t>
   </si>
@@ -486,6 +495,12 @@
   </si>
   <si>
     <t>21\10\2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ✔</t>
+  </si>
+  <si>
+    <t>22\10\2025</t>
   </si>
 </sst>
 </file>
@@ -8650,316 +8665,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32AD5A6-1E4C-4176-9AAF-BAA9E6F777F3}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>150</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>151</v>
-      </c>
-      <c r="C3" s="2">
-        <v>300</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>301</v>
-      </c>
-      <c r="C4" s="2">
-        <v>450</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2">
-        <v>451</v>
-      </c>
-      <c r="C5" s="2">
-        <v>550</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2">
-        <v>551</v>
-      </c>
-      <c r="C6" s="2">
-        <v>700</v>
-      </c>
-      <c r="D6" s="2">
-        <v>593</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2">
-        <v>701</v>
-      </c>
-      <c r="C7" s="2">
-        <v>850</v>
-      </c>
-      <c r="D7" s="2">
-        <v>783</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2">
-        <v>851</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1001</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1150</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1151</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1300</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1301</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1450</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>2</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1451</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1500</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD634B16-74AB-4B97-8AF2-4343329B1265}">
-  <dimension ref="A1:L12"/>
-  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
@@ -9051,9 +8756,7 @@
       <c r="E3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
         <v>41</v>
@@ -9062,7 +8765,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -9081,13 +8784,9 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -9099,20 +8798,20 @@
       <c r="C5" s="2">
         <v>550</v>
       </c>
-      <c r="D5" s="2">
-        <v>497</v>
-      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -9126,19 +8825,19 @@
         <v>700</v>
       </c>
       <c r="D6" s="2">
-        <v>696</v>
+        <v>593</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -9151,15 +8850,21 @@
       <c r="C7" s="2">
         <v>850</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>783</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -9172,7 +8877,7 @@
         <v>1000</v>
       </c>
       <c r="D8" s="2">
-        <v>808</v>
+        <v>894</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
@@ -9186,7 +8891,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -9272,4 +8977,322 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD634B16-74AB-4B97-8AF2-4343329B1265}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>150</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>151</v>
+      </c>
+      <c r="C3" s="2">
+        <v>300</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>301</v>
+      </c>
+      <c r="C4" s="2">
+        <v>450</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>451</v>
+      </c>
+      <c r="C5" s="2">
+        <v>550</v>
+      </c>
+      <c r="D5" s="2">
+        <v>497</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>551</v>
+      </c>
+      <c r="C6" s="2">
+        <v>700</v>
+      </c>
+      <c r="D6" s="2">
+        <v>696</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>701</v>
+      </c>
+      <c r="C7" s="2">
+        <v>850</v>
+      </c>
+      <c r="D7" s="2">
+        <v>808</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2">
+        <v>851</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1150</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1151</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1300</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1301</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1450</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1451</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAP ME\Desktop\cmms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094DD831-96FA-4C73-AD6A-BA9D070C7228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCC3180-E1F7-4BDE-9AAF-6B273DFE2CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Card24" sheetId="28" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="146">
   <si>
     <t>card</t>
   </si>
@@ -501,6 +501,9 @@
   </si>
   <si>
     <t>22\10\2025</t>
+  </si>
+  <si>
+    <t>23\10\2025</t>
   </si>
 </sst>
 </file>
@@ -8353,8 +8356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07705AAC-0EB5-4ED1-B658-B16CA1C68037}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8566,15 +8569,23 @@
       <c r="C8" s="2">
         <v>1000</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>883</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -8665,7 +8676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32AD5A6-1E4C-4176-9AAF-BAA9E6F777F3}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,7 +521,12 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Event </t>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Correction </t>
         </is>
       </c>
     </row>
@@ -586,7 +591,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -649,7 +659,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -712,7 +727,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -775,7 +795,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -838,7 +863,12 @@
           <t>20\5\2025</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -901,7 +931,12 @@
           <t>6\10\2025</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -964,7 +999,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1027,7 +1067,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1090,7 +1135,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1153,7 +1203,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1216,7 +1271,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -526,7 +526,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Correction </t>
+          <t>Correction</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -664,7 +668,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -732,7 +740,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -800,7 +812,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -868,7 +884,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -936,7 +956,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1004,7 +1028,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1072,7 +1100,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1140,7 +1172,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1208,7 +1244,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1276,7 +1316,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -593,7 +593,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>تم تشغيل ماكينه</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -533,7 +533,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -605,7 +605,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -677,7 +677,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -749,7 +749,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -821,7 +821,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -893,7 +893,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -965,7 +965,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1037,7 +1037,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1109,7 +1109,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1181,7 +1181,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1253,7 +1253,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -737,7 +737,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>تم تشغيل</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -546,51 +546,15 @@
           <t>150</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
           <t>تم تشغيل ماكينه</t>
@@ -598,7 +562,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>لايوجد</t>
         </is>
       </c>
     </row>
@@ -618,61 +582,21 @@
           <t>300</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
           <t>  </t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -690,61 +614,21 @@
           <t>450</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
           <t>تم تشغيل</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -762,61 +646,17 @@
           <t>550</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -839,11 +679,7 @@
           <t>632</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>✔</t>
@@ -864,31 +700,15 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>20\5\2025</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -911,11 +731,7 @@
           <t>870</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
@@ -926,41 +742,17 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
           <t>6\10\2025</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -978,61 +770,17 @@
           <t>1000</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1050,61 +798,17 @@
           <t>1150</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1122,61 +826,17 @@
           <t>1300</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1194,61 +854,17 @@
           <t>1450</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1266,61 +882,17 @@
           <t>1500</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAP ME\Desktop\cmms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABF3D7E-5C9C-48BA-8C72-4A6706278D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCBC072-5A03-48BA-A37E-7AD84A69373E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="178">
   <si>
     <t>card</t>
   </si>
@@ -588,6 +588,9 @@
   </si>
   <si>
     <t>28\9\2025</t>
+  </si>
+  <si>
+    <t>1\1\1111\</t>
   </si>
 </sst>
 </file>
@@ -953,10 +956,14 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1014,6 +1021,9 @@
       </c>
       <c r="D2">
         <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>177</v>
       </c>
       <c r="M2" t="s">
         <v>17</v>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAP ME\Desktop\cmms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCBC072-5A03-48BA-A37E-7AD84A69373E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2B45C8-5A88-48D0-893B-FE3F3A51C30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Card24" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="179">
   <si>
     <t>card</t>
   </si>
@@ -591,6 +591,9 @@
   </si>
   <si>
     <t>1\1\1111\</t>
+  </si>
+  <si>
+    <t>1\11\2025</t>
   </si>
 </sst>
 </file>
@@ -955,7 +958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -5314,11 +5317,16 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -5497,10 +5505,19 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>1001</v>
+        <v>851</v>
       </c>
       <c r="C9">
-        <v>1150</v>
+        <v>1000</v>
+      </c>
+      <c r="D9">
+        <v>950</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -5508,10 +5525,10 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>1151</v>
+        <v>1001</v>
       </c>
       <c r="C10">
-        <v>1300</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -5519,10 +5536,10 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>1301</v>
+        <v>1151</v>
       </c>
       <c r="C11">
-        <v>1450</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -5530,9 +5547,20 @@
         <v>2</v>
       </c>
       <c r="B12">
+        <v>1301</v>
+      </c>
+      <c r="C12">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
         <v>1451</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>1500</v>
       </c>
     </row>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="16" activeTab="25" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Card24" sheetId="1" state="visible" r:id="rId1"/>
@@ -34,25 +35,20 @@
     <sheet name="Card2" sheetId="26" state="visible" r:id="rId26"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -66,27 +62,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -99,17 +80,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -481,97 +459,133 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Min_Tones</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Max_Tones</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Tones</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Revolving flats(x)</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>1.carding elemnt(o)</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>licker_in carding element(o)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Doffer carding element(o)</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>cylinder(X)</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>doffer(X)</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Revolving flats(o)</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="N1" s="2" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Correction</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>150</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>1\1\1111\</t>
@@ -589,89 +603,247 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>24</v>
-      </c>
-      <c r="B3" t="n">
-        <v>151</v>
-      </c>
-      <c r="C3" t="n">
-        <v>300</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>24</v>
-      </c>
-      <c r="B4" t="n">
-        <v>301</v>
-      </c>
-      <c r="C4" t="n">
-        <v>450</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="M4" t="inlineStr">
         <is>
           <t>تم تشغيل</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>24</v>
-      </c>
-      <c r="B5" t="n">
-        <v>451</v>
-      </c>
-      <c r="C5" t="n">
-        <v>550</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>24</v>
-      </c>
-      <c r="B6" t="n">
-        <v>551</v>
-      </c>
-      <c r="C6" t="n">
-        <v>700</v>
-      </c>
-      <c r="D6" t="n">
-        <v>632</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>632</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>✔</t>
@@ -692,30 +864,58 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>20\5\2025</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>24</v>
-      </c>
-      <c r="B7" t="n">
-        <v>701</v>
-      </c>
-      <c r="C7" t="n">
-        <v>850</v>
-      </c>
-      <c r="D7" t="n">
-        <v>870</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>870</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
@@ -726,127 +926,401 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>6\10\2025</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>24</v>
-      </c>
-      <c r="B8" t="n">
-        <v>851</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>24</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1001</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1150</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>24</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1151</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1151</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>24</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1301</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1450</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1301</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1450</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>24</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1451</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1451</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -868,62 +1342,62 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Min_Tones</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Max_Tones</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Tones</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Revolving flats(x)</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>1.carding elemnt(o)</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>licker_in carding element(o)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Doffer carding element(o)</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>cylinder(X)</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>doffer(X)</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Revolving flats(o)</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
@@ -1227,62 +1701,62 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Min_Tones</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Max_Tones</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Tones</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Revolving flats(x)</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>1.carding elemnt(o)</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>licker_in carding element(o)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Doffer carding element(o)</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>cylinder(X)</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>doffer(X)</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Revolving flats(o)</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
@@ -1588,62 +2062,62 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Min_Tones</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Max_Tones</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Tones</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Revolving flats(x)</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>1.carding elemnt(o)</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>licker_in carding element(o)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Doffer carding element(o)</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>cylinder(X)</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>doffer(X)</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Revolving flats(o)</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
@@ -1953,62 +2427,62 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Min_Tones</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Max_Tones</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Tones</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Revolving flats(x)</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>1.carding elemnt(o)</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>licker_in carding element(o)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Doffer carding element(o)</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>cylinder(X)</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>doffer(X)</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Revolving flats(o)</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
@@ -2326,62 +2800,62 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Min_Tones</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Max_Tones</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Tones</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Revolving flats(x)</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>1.carding elemnt(o)</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>licker_in carding element(o)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Doffer carding element(o)</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>cylinder(X)</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>doffer(X)</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Revolving flats(o)</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
@@ -2697,62 +3171,62 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Min_Tones</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Max_Tones</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Tones</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Revolving flats(x)</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>1.carding elemnt(o)</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>licker_in carding element(o)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Doffer carding element(o)</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>cylinder(X)</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>doffer(X)</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Revolving flats(o)</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
@@ -3072,62 +3546,62 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Min_Tones</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Max_Tones</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Tones</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Revolving flats(x)</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>1.carding elemnt(o)</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>licker_in carding element(o)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Doffer carding element(o)</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>cylinder(X)</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>doffer(X)</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Revolving flats(o)</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
@@ -3445,62 +3919,62 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Min_Tones</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Max_Tones</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Tones</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Revolving flats(x)</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>1.carding elemnt(o)</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>licker_in carding element(o)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Doffer carding element(o)</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>cylinder(X)</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>doffer(X)</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Revolving flats(o)</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
@@ -3816,62 +4290,62 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Min_Tones</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Max_Tones</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Tones</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Revolving flats(x)</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>1.carding elemnt(o)</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>licker_in carding element(o)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Doffer carding element(o)</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>cylinder(X)</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>doffer(X)</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Revolving flats(o)</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
@@ -4117,62 +4591,62 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Min_Tones</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Max_Tones</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Tones</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Revolving flats(x)</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>1.carding elemnt(o)</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>licker_in carding element(o)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Doffer carding element(o)</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>cylinder(X)</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>doffer(X)</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Revolving flats(o)</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
@@ -4490,62 +4964,62 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Min_Tones</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Max_Tones</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Tones</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Revolving flats(x)</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>1.carding elemnt(o)</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>licker_in carding element(o)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Doffer carding element(o)</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>cylinder(X)</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>doffer(X)</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Revolving flats(o)</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
@@ -4847,62 +5321,62 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Min_Tones</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Max_Tones</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Tones</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Revolving flats(x)</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>1.carding elemnt(o)</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>licker_in carding element(o)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Doffer carding element(o)</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>cylinder(X)</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>doffer(X)</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Revolving flats(o)</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
@@ -5148,62 +5622,62 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Min_Tones</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Max_Tones</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Tones</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Revolving flats(x)</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>1.carding elemnt(o)</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>licker_in carding element(o)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Doffer carding element(o)</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>cylinder(X)</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>doffer(X)</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Revolving flats(o)</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
@@ -5521,62 +5995,62 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Min_Tones</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Max_Tones</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Tones</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Revolving flats(x)</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>1.carding elemnt(o)</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>licker_in carding element(o)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Doffer carding element(o)</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>cylinder(X)</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>doffer(X)</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Revolving flats(o)</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
@@ -5888,47 +6362,47 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Current_Tones</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Service Needed</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>last service</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Tones</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Current_Tones.1</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Done Services</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Not Done Services</t>
         </is>
@@ -6860,17 +7334,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Min_Tones</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Max_Tones</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Service</t>
         </is>
@@ -7048,62 +7522,62 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Min_Tones</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Max_Tones</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Tones</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Revolving flats(x)</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>1.carding elemnt(o)</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>licker_in carding element(o)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Doffer carding element(o)</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>cylinder(X)</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>doffer(X)</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Revolving flats(o)</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
@@ -7421,62 +7895,62 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Min_Tones</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Max_Tones</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Tones</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Revolving flats(x)</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>1.carding elemnt(o)</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>licker_in carding element(o)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Doffer carding element(o)</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>cylinder(X)</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>doffer(X)</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Revolving flats(o)</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
@@ -7818,62 +8292,62 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Min_Tones</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Max_Tones</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Tones</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Revolving flats(x)</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>1.carding elemnt(o)</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>licker_in carding element(o)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Doffer carding element(o)</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>cylinder(X)</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>doffer(X)</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Revolving flats(o)</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
@@ -8163,62 +8637,62 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Min_Tones</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Max_Tones</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Tones</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Revolving flats(x)</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>1.carding elemnt(o)</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>licker_in carding element(o)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Doffer carding element(o)</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>cylinder(X)</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>doffer(X)</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Revolving flats(o)</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
@@ -8504,62 +8978,62 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Min_Tones</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Max_Tones</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Tones</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Revolving flats(x)</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>1.carding elemnt(o)</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>licker_in carding element(o)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Doffer carding element(o)</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>cylinder(X)</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>doffer(X)</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Revolving flats(o)</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
@@ -8845,62 +9319,62 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Min_Tones</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Max_Tones</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Tones</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Revolving flats(x)</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>1.carding elemnt(o)</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>licker_in carding element(o)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Doffer carding element(o)</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>cylinder(X)</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>doffer(X)</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Revolving flats(o)</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
@@ -9178,62 +9652,62 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Min_Tones</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Max_Tones</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Tones</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Revolving flats(x)</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>1.carding elemnt(o)</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>licker_in carding element(o)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Doffer carding element(o)</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>cylinder(X)</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>doffer(X)</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Revolving flats(o)</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
@@ -9537,62 +10011,62 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Min_Tones</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Max_Tones</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Tones</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Revolving flats(x)</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>1.carding elemnt(o)</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>licker_in carding element(o)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Doffer carding element(o)</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>cylinder(X)</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>doffer(X)</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Revolving flats(o)</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
@@ -9892,62 +10366,62 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Min_Tones</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Max_Tones</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Tones</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Revolving flats(x)</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>1.carding elemnt(o)</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>licker_in carding element(o)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Doffer carding element(o)</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>cylinder(X)</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>doffer(X)</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Revolving flats(o)</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,69 +610,41 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>150</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>done</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> تم معايره </t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -682,12 +654,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>151</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -737,7 +709,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>تم تشغيل</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -754,12 +726,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>301</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>450</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -809,7 +781,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>تم تشغيل</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -826,17 +798,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>451</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>550</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -846,22 +818,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -876,7 +848,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>20\5\2025</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -898,17 +870,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>551</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>700</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>870</t>
+          <t>632</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -928,27 +900,27 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>✔</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>6\10\2025</t>
+          <t>20\5\2025</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -970,57 +942,57 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>701</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>850</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>870</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>6\10\2025</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1042,12 +1014,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1001</t>
+          <t>851</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1114,12 +1086,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1151</t>
+          <t>1001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1300</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1186,12 +1158,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>1151</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1450</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1258,65 +1230,137 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>1301</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1450</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>1451</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>1500</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>nan</t>
         </is>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,41 +610,69 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>151</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>done</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> تم معايره </t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -654,12 +682,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>301</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>450</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -709,7 +737,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>تم تشغيل</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -726,12 +754,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>451</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>550</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -781,7 +809,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>تم تشغيل</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -798,57 +826,57 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>551</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>700</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>632</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>20\5\2025</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -870,17 +898,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>701</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>850</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>870</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -900,12 +928,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -920,7 +948,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>20\5\2025</t>
+          <t>6\10\2025</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -942,17 +970,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>851</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>870</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -962,12 +990,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -992,7 +1020,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>6\10\2025</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1014,12 +1042,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>1001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1086,12 +1114,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1001</t>
+          <t>1151</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1158,12 +1186,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1151</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1300</t>
+          <t>1450</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1230,12 +1258,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>1451</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1450</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1289,78 +1317,6 @@
         </is>
       </c>
       <c r="N12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1451</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1500</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
         <is>
           <t>nan</t>
         </is>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -591,16 +591,8 @@
           <t>1\1\1111\</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>تم تشغيل ماكينه</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>لايوجد</t>
-        </is>
-      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,6 +529,11 @@
           <t>Correction</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>event</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -591,8 +596,17 @@
           <t>1\1\1111\</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>تم تشغيل ماكينه</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>لايوجد</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -665,6 +679,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -737,6 +752,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -809,6 +825,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -881,6 +898,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -953,6 +971,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1025,6 +1044,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1097,6 +1117,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1169,6 +1190,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1241,6 +1263,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1313,6 +1336,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,11 +529,6 @@
           <t>Correction</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>event</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -606,7 +601,6 @@
           <t>لايوجد</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -679,7 +673,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -752,7 +745,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -825,7 +817,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -898,7 +889,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -971,7 +961,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1044,7 +1033,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1117,7 +1105,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1190,7 +1177,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1263,7 +1249,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1336,7 +1321,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1321,6 +1321,22 @@
           <t>nan</t>
         </is>
       </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,6 +529,11 @@
           <t>Correction</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Serviced by</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -601,6 +606,7 @@
           <t>لايوجد</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -673,6 +679,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -745,6 +752,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -817,6 +825,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -889,6 +898,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -961,6 +971,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1033,6 +1044,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1105,6 +1117,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1177,6 +1190,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1249,6 +1263,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1321,22 +1336,7 @@
           <t>nan</t>
         </is>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -531,7 +531,7 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Serviced by</t>
+          <t>Servised by</t>
         </is>
       </c>
     </row>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,11 +529,6 @@
           <t>Correction</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Servised by</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -606,7 +601,6 @@
           <t>لايوجد</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -679,7 +673,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -752,7 +745,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -825,7 +817,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -898,7 +889,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -971,7 +961,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1044,7 +1033,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1117,7 +1105,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1190,7 +1177,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1263,7 +1249,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1336,7 +1321,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,6 +529,11 @@
           <t>Correction</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Serviced by </t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -601,6 +606,7 @@
           <t>لايوجد</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -673,6 +679,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -745,6 +752,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -817,6 +825,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -889,6 +898,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -961,6 +971,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1033,6 +1044,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1105,6 +1117,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1177,6 +1190,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1249,6 +1263,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1321,6 +1336,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,11 +529,6 @@
           <t>Correction</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Serviced by </t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -606,7 +601,6 @@
           <t>لايوجد</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -671,15 +665,14 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>عطل</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr"/>
+          <t xml:space="preserve">تم اصلاح </t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -752,7 +745,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -825,7 +817,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -898,7 +889,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -971,7 +961,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1044,7 +1033,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1117,7 +1105,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1190,7 +1177,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1263,7 +1249,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1336,7 +1321,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -665,12 +665,12 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>عطل</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve">تم اصلاح </t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>عطل</t>
         </is>
       </c>
     </row>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,6 +529,11 @@
           <t>Correction</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Servised by</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -601,6 +606,7 @@
           <t>لايوجد</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -673,6 +679,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -745,6 +752,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -817,6 +825,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -886,9 +895,10 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>عطل</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -961,6 +971,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1033,6 +1044,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1105,6 +1117,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1177,6 +1190,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1249,6 +1263,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1321,6 +1336,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -531,7 +531,7 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Servised by</t>
+          <t>servised by</t>
         </is>
       </c>
     </row>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,11 +529,6 @@
           <t>Correction</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>servised by</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -596,17 +591,12 @@
           <t>1\1\1111\</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>تم تشغيل ماكينه</t>
-        </is>
-      </c>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
           <t>لايوجد</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -669,17 +659,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -742,17 +727,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>تم تشغيل</t>
-        </is>
-      </c>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -815,17 +795,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -888,17 +863,12 @@
           <t>20\5\2025</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -961,17 +931,12 @@
           <t>6\10\2025</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1034,17 +999,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1107,17 +1067,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1180,17 +1135,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1253,17 +1203,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1326,17 +1271,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -531,67 +531,35 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>150</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
           <t>1\1\1111\</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>تم تشغيل ماكينه</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr">
         <is>
           <t>لايوجد</t>
@@ -599,235 +567,89 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A3" t="n">
+        <v>24</v>
+      </c>
+      <c r="B3" t="n">
+        <v>151</v>
+      </c>
+      <c r="C3" t="n">
+        <v>300</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>301</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>450</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A4" t="n">
+        <v>24</v>
+      </c>
+      <c r="B4" t="n">
+        <v>301</v>
+      </c>
+      <c r="C4" t="n">
+        <v>450</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>تم تشغيل</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>451</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>550</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A5" t="n">
+        <v>24</v>
+      </c>
+      <c r="B5" t="n">
+        <v>451</v>
+      </c>
+      <c r="C5" t="n">
+        <v>550</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>551</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>700</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>632</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A6" t="n">
+        <v>24</v>
+      </c>
+      <c r="B6" t="n">
+        <v>551</v>
+      </c>
+      <c r="C6" t="n">
+        <v>700</v>
+      </c>
+      <c r="D6" t="n">
+        <v>632</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>✔</t>
@@ -848,54 +670,30 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>20\5\2025</t>
         </is>
       </c>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>701</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>850</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>870</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A7" t="n">
+        <v>24</v>
+      </c>
+      <c r="B7" t="n">
+        <v>701</v>
+      </c>
+      <c r="C7" t="n">
+        <v>850</v>
+      </c>
+      <c r="D7" t="n">
+        <v>870</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
@@ -906,377 +704,127 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
           <t>6\10\2025</t>
         </is>
       </c>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>851</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A8" t="n">
+        <v>24</v>
+      </c>
+      <c r="B8" t="n">
+        <v>851</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1001</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1150</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A9" t="n">
+        <v>24</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1150</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1151</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1300</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A10" t="n">
+        <v>24</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1151</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1301</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1450</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A11" t="n">
+        <v>24</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1301</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1450</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1451</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1500</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A12" t="n">
+        <v>24</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1451</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="N12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7469,7 +7017,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7538,39 +7086,95 @@
           <t>Date</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>event</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>150</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>151</v>
-      </c>
-      <c r="C3" t="n">
-        <v>300</v>
-      </c>
-      <c r="D3" t="n">
-        <v>159</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -7582,48 +7186,122 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>15\7\2024</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>301</v>
-      </c>
-      <c r="C4" t="n">
-        <v>450</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>451</v>
-      </c>
-      <c r="C5" t="n">
-        <v>550</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>✔</t>
@@ -7639,77 +7317,147 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
           <t>29\1\2025</t>
         </is>
       </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>551</v>
-      </c>
-      <c r="C6" t="n">
-        <v>700</v>
-      </c>
-      <c r="D6" t="n">
-        <v>565</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>565</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>5\4\2025</t>
         </is>
       </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" t="n">
-        <v>701</v>
-      </c>
-      <c r="C7" t="n">
-        <v>850</v>
-      </c>
-      <c r="D7" t="n">
-        <v>724</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>724</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>✔</t>
@@ -7720,116 +7468,322 @@
           <t>5\7\2025</t>
         </is>
       </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" t="n">
-        <v>851</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D8" t="n">
-        <v>859</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>859</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
           <t>24\9\2025</t>
         </is>
       </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1001</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1150</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1151</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1151</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1301</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1450</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1301</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1450</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1451</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1451</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
